--- a/Lab-Assessments/Assessments.xlsx
+++ b/Lab-Assessments/Assessments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment-1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
   <si>
     <t>Roll no.</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +295,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1230,13 +1236,625 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10">
+        <v>2401301081</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
+        <v>2401301079</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10">
+        <v>2401301138</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10">
+        <v>2401301105</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10">
+        <v>2401301110</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10">
+        <v>2401301108</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10">
+        <v>2401301117</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10">
+        <v>2401301195</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <v>2401301177</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10">
+        <v>2401301009</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
+        <v>2401301010</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10">
+        <v>2401301133</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10">
+        <v>2401301011</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10">
+        <v>2401301060</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10">
+        <v>2401301012</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10">
+        <v>2401301165</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10">
+        <v>2401301014</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10">
+        <v>2401301170</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10">
+        <v>2401301111</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10">
+        <v>2401301089</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10">
+        <v>2401301080</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10">
+        <v>2401301018</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10">
+        <v>2401301040</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10">
+        <v>2401301129</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10">
+        <v>2401301019</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10">
+        <v>2409301066</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10">
+        <v>2401301107</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10">
+        <v>2401301169</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10">
+        <v>2401301137</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10">
+        <v>2401301023</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10">
+        <v>2401301024</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10">
+        <v>2401301025</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10">
+        <v>2401301042</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10">
+        <v>2401301090</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10">
+        <v>2401301038</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10">
+        <v>2401301168</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10">
+        <v>2401301093</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="10">
+        <v>2401301027</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="10">
+        <v>2401301028</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="10">
+        <v>2401301086</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="10">
+        <v>2401301029</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="10">
+        <v>2401301183</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="10">
+        <v>2401301031</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="10">
+        <v>2401301058</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="10">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
